--- a/Codes/regradetres.xlsx
+++ b/Codes/regradetres.xlsx
@@ -5,16 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\TIFFANY\calib_motores_3d\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\SCARLET\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C448CEA-CD3A-4878-B80B-4C2C445C12C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FC0D2896-E51D-4FF4-9A26-BF5E95C38CB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4572" yWindow="216" windowWidth="17280" windowHeight="11844" xr2:uid="{046A992F-6F5C-4587-B765-BE75D3733EC5}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{046A992F-6F5C-4587-B765-BE75D3733EC5}"/>
   </bookViews>
   <sheets>
-    <sheet name="Planilha1 (2)" sheetId="2" r:id="rId1"/>
-    <sheet name="Planilha1" sheetId="1" r:id="rId2"/>
+    <sheet name="TIFFANY" sheetId="2" r:id="rId1"/>
+    <sheet name="SCARLET" sheetId="5" r:id="rId2"/>
+    <sheet name="Planilha1" sheetId="1" r:id="rId3"/>
+    <sheet name="TIFFANY_TESTE" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -26,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="23">
   <si>
     <t>grau</t>
   </si>
@@ -81,12 +83,27 @@
   <si>
     <t>pata pra trás</t>
   </si>
+  <si>
+    <t>TIFFANY</t>
+  </si>
+  <si>
+    <t>DIREITA</t>
+  </si>
+  <si>
+    <t>joguei pra quadrado e parafusei como se estivesse no 0 (40,79)</t>
+  </si>
+  <si>
+    <t>invertido</t>
+  </si>
+  <si>
+    <t>bota no 0 e parafusa ele saindo pra esquerda</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -110,16 +127,66 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="24"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF66FFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF5050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -127,20 +194,141 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF5050"/>
+      <color rgb="FF66FFCC"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -449,10 +637,1249 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B3BA7B7-8504-4640-B7F1-CD3E82B430DF}">
+  <dimension ref="D2:R25"/>
+  <sheetViews>
+    <sheetView topLeftCell="B4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21:D22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="4.21875" customWidth="1"/>
+    <col min="3" max="3" width="4.21875" customWidth="1"/>
+    <col min="10" max="10" width="9.6640625" customWidth="1"/>
+    <col min="11" max="11" width="6.21875" customWidth="1"/>
+    <col min="18" max="18" width="9.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="4:18" ht="31.2" x14ac:dyDescent="0.6">
+      <c r="D2" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="24"/>
+      <c r="L2" s="24"/>
+      <c r="M2" s="24"/>
+      <c r="N2" s="24"/>
+      <c r="O2" s="24"/>
+      <c r="P2" s="24"/>
+      <c r="Q2" s="24"/>
+      <c r="R2" s="24"/>
+    </row>
+    <row r="4" spans="4:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D4" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="20"/>
+      <c r="L4" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="M4" s="21"/>
+      <c r="N4" s="21"/>
+      <c r="O4" s="21"/>
+      <c r="P4" s="21"/>
+      <c r="Q4" s="21"/>
+      <c r="R4" s="21"/>
+    </row>
+    <row r="5" spans="4:18" x14ac:dyDescent="0.3">
+      <c r="D5" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="7">
+        <f>15.88+24.91</f>
+        <v>40.79</v>
+      </c>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="8"/>
+      <c r="L5" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="M5" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="N5" s="7">
+        <f>15.88+24.91</f>
+        <v>40.79</v>
+      </c>
+      <c r="O5" s="7"/>
+      <c r="P5" s="7"/>
+      <c r="Q5" s="7"/>
+      <c r="R5" s="8"/>
+    </row>
+    <row r="6" spans="4:18" x14ac:dyDescent="0.3">
+      <c r="D6" s="9"/>
+      <c r="E6" t="s">
+        <v>0</v>
+      </c>
+      <c r="F6" t="s">
+        <v>1</v>
+      </c>
+      <c r="J6" s="10"/>
+      <c r="L6" s="9"/>
+      <c r="M6" t="s">
+        <v>0</v>
+      </c>
+      <c r="N6" t="s">
+        <v>1</v>
+      </c>
+      <c r="R6" s="10"/>
+    </row>
+    <row r="7" spans="4:18" x14ac:dyDescent="0.3">
+      <c r="D7" s="9"/>
+      <c r="E7" s="1">
+        <f>F5</f>
+        <v>40.79</v>
+      </c>
+      <c r="F7" s="1">
+        <v>109</v>
+      </c>
+      <c r="G7" t="s">
+        <v>9</v>
+      </c>
+      <c r="I7" t="s">
+        <v>10</v>
+      </c>
+      <c r="J7" s="10"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="1">
+        <f>N5</f>
+        <v>40.79</v>
+      </c>
+      <c r="N7" s="1">
+        <v>527</v>
+      </c>
+      <c r="O7" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>8</v>
+      </c>
+      <c r="R7" s="10"/>
+    </row>
+    <row r="8" spans="4:18" x14ac:dyDescent="0.3">
+      <c r="D8" s="9"/>
+      <c r="E8" s="1">
+        <f>E7-180</f>
+        <v>-139.21</v>
+      </c>
+      <c r="F8" s="1">
+        <v>527</v>
+      </c>
+      <c r="G8" t="s">
+        <v>7</v>
+      </c>
+      <c r="I8" t="s">
+        <v>8</v>
+      </c>
+      <c r="J8" s="10"/>
+      <c r="L8" s="9"/>
+      <c r="M8" s="1">
+        <f>M7-180</f>
+        <v>-139.21</v>
+      </c>
+      <c r="N8" s="1">
+        <v>109</v>
+      </c>
+      <c r="O8" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>10</v>
+      </c>
+      <c r="R8" s="10"/>
+    </row>
+    <row r="9" spans="4:18" x14ac:dyDescent="0.3">
+      <c r="D9" s="9"/>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9" s="11">
+        <f>((E9-E7)/(E8-E7))*(F8-F7)+F7</f>
+        <v>203.72344444444445</v>
+      </c>
+      <c r="J9" s="10"/>
+      <c r="L9" s="9"/>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9" s="3">
+        <f>((M9-M7)/(M8-M7))*(N8-N7)+N7</f>
+        <v>432.27655555555555</v>
+      </c>
+      <c r="P9" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q9" s="22"/>
+      <c r="R9" s="23"/>
+    </row>
+    <row r="10" spans="4:18" x14ac:dyDescent="0.3">
+      <c r="D10" s="9"/>
+      <c r="E10">
+        <v>180</v>
+      </c>
+      <c r="F10" s="12">
+        <f>((E10-E7)/(E8-E7))*(F8-F7)+F7</f>
+        <v>-214.27655555555555</v>
+      </c>
+      <c r="J10" s="10"/>
+      <c r="L10" s="9"/>
+      <c r="M10">
+        <v>180</v>
+      </c>
+      <c r="N10" s="4">
+        <f>((M10-M7)/(M8-M7))*(N8-N7)+N7</f>
+        <v>850.27655555555555</v>
+      </c>
+      <c r="P10" s="22"/>
+      <c r="Q10" s="22"/>
+      <c r="R10" s="23"/>
+    </row>
+    <row r="11" spans="4:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D11" s="13"/>
+      <c r="E11" s="14">
+        <f>F5</f>
+        <v>40.79</v>
+      </c>
+      <c r="F11" s="14">
+        <f>((E11-E7)/(E8-E7))*(F8-F7)+F7</f>
+        <v>109</v>
+      </c>
+      <c r="G11" s="15"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="17"/>
+      <c r="L11" s="9"/>
+      <c r="M11" s="18">
+        <f>N5</f>
+        <v>40.79</v>
+      </c>
+      <c r="N11" s="18">
+        <f>((M11-M7)/(M8-M7))*(N8-N7)+N7</f>
+        <v>527</v>
+      </c>
+      <c r="P11" s="22"/>
+      <c r="Q11" s="22"/>
+      <c r="R11" s="23"/>
+    </row>
+    <row r="12" spans="4:18" x14ac:dyDescent="0.3">
+      <c r="D12" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F12" s="7">
+        <v>24.91</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="8"/>
+      <c r="L12" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="M12" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="N12" s="7">
+        <v>24.91</v>
+      </c>
+      <c r="O12" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="P12" s="7"/>
+      <c r="Q12" s="7"/>
+      <c r="R12" s="8"/>
+    </row>
+    <row r="13" spans="4:18" x14ac:dyDescent="0.3">
+      <c r="D13" s="9"/>
+      <c r="E13" t="s">
+        <v>0</v>
+      </c>
+      <c r="F13" t="s">
+        <v>1</v>
+      </c>
+      <c r="J13" s="10"/>
+      <c r="L13" s="9"/>
+      <c r="M13" t="s">
+        <v>0</v>
+      </c>
+      <c r="N13" t="s">
+        <v>1</v>
+      </c>
+      <c r="R13" s="10"/>
+    </row>
+    <row r="14" spans="4:18" x14ac:dyDescent="0.3">
+      <c r="D14" s="9"/>
+      <c r="E14" s="1">
+        <f>-90+F12</f>
+        <v>-65.09</v>
+      </c>
+      <c r="F14" s="1">
+        <v>95</v>
+      </c>
+      <c r="G14" t="s">
+        <v>13</v>
+      </c>
+      <c r="I14" t="s">
+        <v>10</v>
+      </c>
+      <c r="J14" s="10"/>
+      <c r="L14" s="9"/>
+      <c r="M14" s="1">
+        <f>-90+N12</f>
+        <v>-65.09</v>
+      </c>
+      <c r="N14" s="1">
+        <v>534</v>
+      </c>
+      <c r="O14" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>8</v>
+      </c>
+      <c r="R14" s="10"/>
+    </row>
+    <row r="15" spans="4:18" x14ac:dyDescent="0.3">
+      <c r="D15" s="9"/>
+      <c r="E15" s="1">
+        <f>90+F12</f>
+        <v>114.91</v>
+      </c>
+      <c r="F15" s="1">
+        <v>516</v>
+      </c>
+      <c r="G15" t="s">
+        <v>12</v>
+      </c>
+      <c r="I15" t="s">
+        <v>8</v>
+      </c>
+      <c r="J15" s="10"/>
+      <c r="L15" s="9"/>
+      <c r="M15" s="1">
+        <f>90+N12</f>
+        <v>114.91</v>
+      </c>
+      <c r="N15" s="1">
+        <v>110</v>
+      </c>
+      <c r="O15" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>10</v>
+      </c>
+      <c r="R15" s="10"/>
+    </row>
+    <row r="16" spans="4:18" x14ac:dyDescent="0.3">
+      <c r="D16" s="9"/>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16" s="11">
+        <f>((E16-E14)/(E15-E14))*(F15-F14)+F14</f>
+        <v>247.23827777777777</v>
+      </c>
+      <c r="J16" s="10"/>
+      <c r="L16" s="9"/>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16" s="3">
+        <f>((M16-M14)/(M15-M14))*(N15-N14)+N14</f>
+        <v>380.67688888888893</v>
+      </c>
+      <c r="R16" s="10"/>
+    </row>
+    <row r="17" spans="4:18" x14ac:dyDescent="0.3">
+      <c r="D17" s="9"/>
+      <c r="E17">
+        <v>180</v>
+      </c>
+      <c r="F17" s="12">
+        <f>((E17-E14)/(E15-E14))*(F15-F14)+F14</f>
+        <v>668.23827777777774</v>
+      </c>
+      <c r="J17" s="10"/>
+      <c r="L17" s="9"/>
+      <c r="M17">
+        <v>180</v>
+      </c>
+      <c r="N17" s="4">
+        <f>((M17-M14)/(M15-M14))*(N15-N14)+N14</f>
+        <v>-43.323111111111075</v>
+      </c>
+      <c r="R17" s="10"/>
+    </row>
+    <row r="18" spans="4:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D18" s="13"/>
+      <c r="E18" s="14">
+        <f>F12</f>
+        <v>24.91</v>
+      </c>
+      <c r="F18" s="14">
+        <f>((E18-E14)/(E15-E14))*(F15-F14)+F14</f>
+        <v>305.5</v>
+      </c>
+      <c r="G18" s="15"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="17"/>
+      <c r="L18" s="13"/>
+      <c r="M18" s="14">
+        <f>N12</f>
+        <v>24.91</v>
+      </c>
+      <c r="N18" s="14">
+        <f>((M18-M14)/(M15-M14))*(N15-N14)+N14</f>
+        <v>322</v>
+      </c>
+      <c r="O18" s="15"/>
+      <c r="P18" s="15"/>
+      <c r="Q18" s="15"/>
+      <c r="R18" s="17"/>
+    </row>
+    <row r="19" spans="4:18" x14ac:dyDescent="0.3">
+      <c r="D19" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F19" s="7">
+        <v>24.91</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="8"/>
+      <c r="L19" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="M19" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="N19" s="7">
+        <f>24.91</f>
+        <v>24.91</v>
+      </c>
+      <c r="O19" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="P19" s="7"/>
+      <c r="Q19" s="7"/>
+      <c r="R19" s="8"/>
+    </row>
+    <row r="20" spans="4:18" x14ac:dyDescent="0.3">
+      <c r="D20" s="9"/>
+      <c r="E20" t="s">
+        <v>0</v>
+      </c>
+      <c r="F20" t="s">
+        <v>1</v>
+      </c>
+      <c r="J20" s="10"/>
+      <c r="L20" s="9"/>
+      <c r="M20" t="s">
+        <v>0</v>
+      </c>
+      <c r="N20" t="s">
+        <v>1</v>
+      </c>
+      <c r="R20" s="10"/>
+    </row>
+    <row r="21" spans="4:18" x14ac:dyDescent="0.3">
+      <c r="D21" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21" s="1">
+        <f>-90+F19</f>
+        <v>-65.09</v>
+      </c>
+      <c r="F21" s="1">
+        <v>79</v>
+      </c>
+      <c r="G21" t="s">
+        <v>17</v>
+      </c>
+      <c r="I21" t="s">
+        <v>10</v>
+      </c>
+      <c r="J21" s="10"/>
+      <c r="L21" s="9"/>
+      <c r="M21" s="1">
+        <f>-90+N19</f>
+        <v>-65.09</v>
+      </c>
+      <c r="N21" s="1">
+        <v>534</v>
+      </c>
+      <c r="O21" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>8</v>
+      </c>
+      <c r="R21" s="10"/>
+    </row>
+    <row r="22" spans="4:18" x14ac:dyDescent="0.3">
+      <c r="D22" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E22" s="1">
+        <f>90+F19</f>
+        <v>114.91</v>
+      </c>
+      <c r="F22" s="1">
+        <v>505</v>
+      </c>
+      <c r="G22" t="s">
+        <v>16</v>
+      </c>
+      <c r="I22" t="s">
+        <v>8</v>
+      </c>
+      <c r="J22" s="10"/>
+      <c r="L22" s="9"/>
+      <c r="M22" s="1">
+        <f>90+N19</f>
+        <v>114.91</v>
+      </c>
+      <c r="N22" s="1">
+        <v>110</v>
+      </c>
+      <c r="O22" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>10</v>
+      </c>
+      <c r="R22" s="10"/>
+    </row>
+    <row r="23" spans="4:18" x14ac:dyDescent="0.3">
+      <c r="D23" s="9"/>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23" s="11">
+        <f>((E23-E21)/(E22-E21))*(F22-F21)+F21</f>
+        <v>233.04633333333334</v>
+      </c>
+      <c r="J23" s="10"/>
+      <c r="L23" s="9"/>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23" s="5">
+        <f>((M23-M21)/(M22-M21))*(N22-N21)+N21</f>
+        <v>380.67688888888893</v>
+      </c>
+      <c r="R23" s="10"/>
+    </row>
+    <row r="24" spans="4:18" x14ac:dyDescent="0.3">
+      <c r="D24" s="9"/>
+      <c r="E24">
+        <v>180</v>
+      </c>
+      <c r="F24" s="12">
+        <f>((E24-E21)/(E22-E21))*(F22-F21)+F21</f>
+        <v>659.04633333333334</v>
+      </c>
+      <c r="J24" s="10"/>
+      <c r="L24" s="9"/>
+      <c r="M24">
+        <v>180</v>
+      </c>
+      <c r="N24" s="6">
+        <f>((M24-M21)/(M22-M21))*(N22-N21)+N21</f>
+        <v>-43.323111111111075</v>
+      </c>
+      <c r="R24" s="10"/>
+    </row>
+    <row r="25" spans="4:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D25" s="13"/>
+      <c r="E25" s="14">
+        <f>F19</f>
+        <v>24.91</v>
+      </c>
+      <c r="F25" s="14">
+        <f>((E25-E21)/(E22-E21))*(F22-F21)+F21</f>
+        <v>292</v>
+      </c>
+      <c r="G25" s="15"/>
+      <c r="H25" s="15"/>
+      <c r="I25" s="15"/>
+      <c r="J25" s="17"/>
+      <c r="L25" s="13"/>
+      <c r="M25" s="14">
+        <v>24.91</v>
+      </c>
+      <c r="N25" s="14">
+        <f>((M25-M21)/(M22-M21))*(N22-N21)+N21</f>
+        <v>322</v>
+      </c>
+      <c r="O25" s="15"/>
+      <c r="P25" s="15"/>
+      <c r="Q25" s="15"/>
+      <c r="R25" s="17"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="D4:J4"/>
+    <mergeCell ref="L4:R4"/>
+    <mergeCell ref="P9:R11"/>
+    <mergeCell ref="D2:R2"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90497D79-28D0-4744-AC86-DE0ED2DEBC76}">
+  <dimension ref="D2:R25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="4.21875" customWidth="1"/>
+    <col min="3" max="3" width="4.21875" customWidth="1"/>
+    <col min="10" max="10" width="9.6640625" customWidth="1"/>
+    <col min="11" max="11" width="6.21875" customWidth="1"/>
+    <col min="18" max="18" width="9.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="4:18" ht="31.2" x14ac:dyDescent="0.6">
+      <c r="D2" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="25"/>
+      <c r="L2" s="25"/>
+      <c r="M2" s="25"/>
+      <c r="N2" s="25"/>
+      <c r="O2" s="25"/>
+      <c r="P2" s="25"/>
+      <c r="Q2" s="25"/>
+      <c r="R2" s="25"/>
+    </row>
+    <row r="4" spans="4:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D4" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="20"/>
+      <c r="L4" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="M4" s="21"/>
+      <c r="N4" s="21"/>
+      <c r="O4" s="21"/>
+      <c r="P4" s="21"/>
+      <c r="Q4" s="21"/>
+      <c r="R4" s="21"/>
+    </row>
+    <row r="5" spans="4:18" x14ac:dyDescent="0.3">
+      <c r="D5" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="7">
+        <v>13.87</v>
+      </c>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="8"/>
+      <c r="L5" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="M5" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="N5" s="7">
+        <v>13.87</v>
+      </c>
+      <c r="O5" s="7"/>
+      <c r="P5" s="7"/>
+      <c r="Q5" s="7"/>
+      <c r="R5" s="8"/>
+    </row>
+    <row r="6" spans="4:18" x14ac:dyDescent="0.3">
+      <c r="D6" s="9"/>
+      <c r="E6" t="s">
+        <v>0</v>
+      </c>
+      <c r="F6" t="s">
+        <v>1</v>
+      </c>
+      <c r="J6" s="10"/>
+      <c r="L6" s="9"/>
+      <c r="M6" t="s">
+        <v>0</v>
+      </c>
+      <c r="N6" t="s">
+        <v>1</v>
+      </c>
+      <c r="R6" s="10"/>
+    </row>
+    <row r="7" spans="4:18" x14ac:dyDescent="0.3">
+      <c r="D7" s="9"/>
+      <c r="E7" s="1">
+        <f>F5</f>
+        <v>13.87</v>
+      </c>
+      <c r="F7" s="1">
+        <v>109</v>
+      </c>
+      <c r="G7" t="s">
+        <v>9</v>
+      </c>
+      <c r="I7" t="s">
+        <v>10</v>
+      </c>
+      <c r="J7" s="10"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="1">
+        <f>N5</f>
+        <v>13.87</v>
+      </c>
+      <c r="N7" s="1">
+        <v>527</v>
+      </c>
+      <c r="O7" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>8</v>
+      </c>
+      <c r="R7" s="10"/>
+    </row>
+    <row r="8" spans="4:18" x14ac:dyDescent="0.3">
+      <c r="D8" s="9"/>
+      <c r="E8" s="1">
+        <f>E7-180</f>
+        <v>-166.13</v>
+      </c>
+      <c r="F8" s="1">
+        <v>527</v>
+      </c>
+      <c r="G8" t="s">
+        <v>7</v>
+      </c>
+      <c r="I8" t="s">
+        <v>8</v>
+      </c>
+      <c r="J8" s="10"/>
+      <c r="L8" s="9"/>
+      <c r="M8" s="1">
+        <f>M7-180</f>
+        <v>-166.13</v>
+      </c>
+      <c r="N8" s="1">
+        <v>109</v>
+      </c>
+      <c r="O8" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>10</v>
+      </c>
+      <c r="R8" s="10"/>
+    </row>
+    <row r="9" spans="4:18" x14ac:dyDescent="0.3">
+      <c r="D9" s="9"/>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9" s="11">
+        <f>((E9-E7)/(E8-E7))*(F8-F7)+F7</f>
+        <v>141.20922222222222</v>
+      </c>
+      <c r="J9" s="10"/>
+      <c r="L9" s="9"/>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9" s="3">
+        <f>((M9-M7)/(M8-M7))*(N8-N7)+N7</f>
+        <v>494.79077777777775</v>
+      </c>
+      <c r="P9" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q9" s="22"/>
+      <c r="R9" s="23"/>
+    </row>
+    <row r="10" spans="4:18" x14ac:dyDescent="0.3">
+      <c r="D10" s="9"/>
+      <c r="E10">
+        <v>180</v>
+      </c>
+      <c r="F10" s="12">
+        <f>((E10-E7)/(E8-E7))*(F8-F7)+F7</f>
+        <v>-276.79077777777781</v>
+      </c>
+      <c r="J10" s="10"/>
+      <c r="L10" s="9"/>
+      <c r="M10">
+        <v>180</v>
+      </c>
+      <c r="N10" s="4">
+        <f>((M10-M7)/(M8-M7))*(N8-N7)+N7</f>
+        <v>912.79077777777775</v>
+      </c>
+      <c r="P10" s="22"/>
+      <c r="Q10" s="22"/>
+      <c r="R10" s="23"/>
+    </row>
+    <row r="11" spans="4:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D11" s="13"/>
+      <c r="E11" s="14">
+        <f>F5</f>
+        <v>13.87</v>
+      </c>
+      <c r="F11" s="14">
+        <f>((E11-E7)/(E8-E7))*(F8-F7)+F7</f>
+        <v>109</v>
+      </c>
+      <c r="G11" s="15"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="17"/>
+      <c r="L11" s="9"/>
+      <c r="M11" s="18">
+        <f>N5</f>
+        <v>13.87</v>
+      </c>
+      <c r="N11" s="18">
+        <f>((M11-M7)/(M8-M7))*(N8-N7)+N7</f>
+        <v>527</v>
+      </c>
+      <c r="P11" s="22"/>
+      <c r="Q11" s="22"/>
+      <c r="R11" s="23"/>
+    </row>
+    <row r="12" spans="4:18" x14ac:dyDescent="0.3">
+      <c r="D12" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F12" s="7">
+        <v>0</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="8"/>
+      <c r="L12" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="M12" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="N12" s="7">
+        <v>0</v>
+      </c>
+      <c r="O12" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="P12" s="7"/>
+      <c r="Q12" s="7"/>
+      <c r="R12" s="8"/>
+    </row>
+    <row r="13" spans="4:18" x14ac:dyDescent="0.3">
+      <c r="D13" s="9"/>
+      <c r="E13" t="s">
+        <v>0</v>
+      </c>
+      <c r="F13" t="s">
+        <v>1</v>
+      </c>
+      <c r="J13" s="10"/>
+      <c r="L13" s="9"/>
+      <c r="M13" t="s">
+        <v>0</v>
+      </c>
+      <c r="N13" t="s">
+        <v>1</v>
+      </c>
+      <c r="R13" s="10"/>
+    </row>
+    <row r="14" spans="4:18" x14ac:dyDescent="0.3">
+      <c r="D14" s="9"/>
+      <c r="E14" s="1">
+        <f>-90+F12</f>
+        <v>-90</v>
+      </c>
+      <c r="F14" s="1">
+        <v>95</v>
+      </c>
+      <c r="G14" t="s">
+        <v>13</v>
+      </c>
+      <c r="I14" t="s">
+        <v>10</v>
+      </c>
+      <c r="J14" s="10"/>
+      <c r="L14" s="9"/>
+      <c r="M14" s="1">
+        <f>-90+N12</f>
+        <v>-90</v>
+      </c>
+      <c r="N14" s="1">
+        <v>534</v>
+      </c>
+      <c r="O14" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>8</v>
+      </c>
+      <c r="R14" s="10"/>
+    </row>
+    <row r="15" spans="4:18" x14ac:dyDescent="0.3">
+      <c r="D15" s="9"/>
+      <c r="E15" s="1">
+        <f>90+F12</f>
+        <v>90</v>
+      </c>
+      <c r="F15" s="1">
+        <v>516</v>
+      </c>
+      <c r="G15" t="s">
+        <v>12</v>
+      </c>
+      <c r="I15" t="s">
+        <v>8</v>
+      </c>
+      <c r="J15" s="10"/>
+      <c r="L15" s="9"/>
+      <c r="M15" s="1">
+        <f>90+N12</f>
+        <v>90</v>
+      </c>
+      <c r="N15" s="1">
+        <v>110</v>
+      </c>
+      <c r="O15" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>10</v>
+      </c>
+      <c r="R15" s="10"/>
+    </row>
+    <row r="16" spans="4:18" x14ac:dyDescent="0.3">
+      <c r="D16" s="9"/>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16" s="11">
+        <f>((E16-E14)/(E15-E14))*(F15-F14)+F14</f>
+        <v>305.5</v>
+      </c>
+      <c r="J16" s="10"/>
+      <c r="L16" s="9"/>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16" s="3">
+        <f>((M16-M14)/(M15-M14))*(N15-N14)+N14</f>
+        <v>322</v>
+      </c>
+      <c r="R16" s="10"/>
+    </row>
+    <row r="17" spans="4:18" x14ac:dyDescent="0.3">
+      <c r="D17" s="9"/>
+      <c r="E17">
+        <v>180</v>
+      </c>
+      <c r="F17" s="12">
+        <f>((E17-E14)/(E15-E14))*(F15-F14)+F14</f>
+        <v>726.5</v>
+      </c>
+      <c r="J17" s="10"/>
+      <c r="L17" s="9"/>
+      <c r="M17">
+        <v>180</v>
+      </c>
+      <c r="N17" s="4">
+        <f>((M17-M14)/(M15-M14))*(N15-N14)+N14</f>
+        <v>-102</v>
+      </c>
+      <c r="R17" s="10"/>
+    </row>
+    <row r="18" spans="4:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D18" s="13"/>
+      <c r="E18" s="14">
+        <f>F12</f>
+        <v>0</v>
+      </c>
+      <c r="F18" s="14">
+        <f>((E18-E14)/(E15-E14))*(F15-F14)+F14</f>
+        <v>305.5</v>
+      </c>
+      <c r="G18" s="15"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="17"/>
+      <c r="L18" s="13"/>
+      <c r="M18" s="14">
+        <f>N12</f>
+        <v>0</v>
+      </c>
+      <c r="N18" s="14">
+        <f>((M18-M14)/(M15-M14))*(N15-N14)+N14</f>
+        <v>322</v>
+      </c>
+      <c r="O18" s="15"/>
+      <c r="P18" s="15"/>
+      <c r="Q18" s="15"/>
+      <c r="R18" s="17"/>
+    </row>
+    <row r="19" spans="4:18" x14ac:dyDescent="0.3">
+      <c r="D19" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F19" s="7">
+        <v>0</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="8"/>
+      <c r="L19" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="M19" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="N19" s="7">
+        <v>0</v>
+      </c>
+      <c r="O19" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="P19" s="7"/>
+      <c r="Q19" s="7"/>
+      <c r="R19" s="8"/>
+    </row>
+    <row r="20" spans="4:18" x14ac:dyDescent="0.3">
+      <c r="D20" s="9"/>
+      <c r="E20" t="s">
+        <v>0</v>
+      </c>
+      <c r="F20" t="s">
+        <v>1</v>
+      </c>
+      <c r="J20" s="10"/>
+      <c r="L20" s="9"/>
+      <c r="M20" t="s">
+        <v>0</v>
+      </c>
+      <c r="N20" t="s">
+        <v>1</v>
+      </c>
+      <c r="R20" s="10"/>
+    </row>
+    <row r="21" spans="4:18" x14ac:dyDescent="0.3">
+      <c r="D21" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21" s="1">
+        <f>-90+F19</f>
+        <v>-90</v>
+      </c>
+      <c r="F21" s="1">
+        <v>79</v>
+      </c>
+      <c r="G21" t="s">
+        <v>17</v>
+      </c>
+      <c r="I21" t="s">
+        <v>10</v>
+      </c>
+      <c r="J21" s="10"/>
+      <c r="L21" s="9"/>
+      <c r="M21" s="1">
+        <f>-90+N19</f>
+        <v>-90</v>
+      </c>
+      <c r="N21" s="1">
+        <v>534</v>
+      </c>
+      <c r="O21" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>8</v>
+      </c>
+      <c r="R21" s="10"/>
+    </row>
+    <row r="22" spans="4:18" x14ac:dyDescent="0.3">
+      <c r="D22" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E22" s="1">
+        <f>90+F19</f>
+        <v>90</v>
+      </c>
+      <c r="F22" s="1">
+        <v>505</v>
+      </c>
+      <c r="G22" t="s">
+        <v>16</v>
+      </c>
+      <c r="I22" t="s">
+        <v>8</v>
+      </c>
+      <c r="J22" s="10"/>
+      <c r="L22" s="9"/>
+      <c r="M22" s="1">
+        <f>90+N19</f>
+        <v>90</v>
+      </c>
+      <c r="N22" s="1">
+        <v>110</v>
+      </c>
+      <c r="O22" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>10</v>
+      </c>
+      <c r="R22" s="10"/>
+    </row>
+    <row r="23" spans="4:18" x14ac:dyDescent="0.3">
+      <c r="D23" s="9"/>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23" s="11">
+        <f>((E23-E21)/(E22-E21))*(F22-F21)+F21</f>
+        <v>292</v>
+      </c>
+      <c r="J23" s="10"/>
+      <c r="L23" s="9"/>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23" s="5">
+        <f>((M23-M21)/(M22-M21))*(N22-N21)+N21</f>
+        <v>322</v>
+      </c>
+      <c r="R23" s="10"/>
+    </row>
+    <row r="24" spans="4:18" x14ac:dyDescent="0.3">
+      <c r="D24" s="9"/>
+      <c r="E24">
+        <v>180</v>
+      </c>
+      <c r="F24" s="12">
+        <f>((E24-E21)/(E22-E21))*(F22-F21)+F21</f>
+        <v>718</v>
+      </c>
+      <c r="J24" s="10"/>
+      <c r="L24" s="9"/>
+      <c r="M24">
+        <v>180</v>
+      </c>
+      <c r="N24" s="6">
+        <f>((M24-M21)/(M22-M21))*(N22-N21)+N21</f>
+        <v>-102</v>
+      </c>
+      <c r="R24" s="10"/>
+    </row>
+    <row r="25" spans="4:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D25" s="13"/>
+      <c r="E25" s="14">
+        <f>F19</f>
+        <v>0</v>
+      </c>
+      <c r="F25" s="14">
+        <f>((E25-E21)/(E22-E21))*(F22-F21)+F21</f>
+        <v>292</v>
+      </c>
+      <c r="G25" s="15"/>
+      <c r="H25" s="15"/>
+      <c r="I25" s="15"/>
+      <c r="J25" s="17"/>
+      <c r="L25" s="13"/>
+      <c r="M25" s="14">
+        <v>0</v>
+      </c>
+      <c r="N25" s="14">
+        <f>((M25-M21)/(M22-M21))*(N22-N21)+N21</f>
+        <v>322</v>
+      </c>
+      <c r="O25" s="15"/>
+      <c r="P25" s="15"/>
+      <c r="Q25" s="15"/>
+      <c r="R25" s="17"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="D2:R2"/>
+    <mergeCell ref="D4:J4"/>
+    <mergeCell ref="L4:R4"/>
+    <mergeCell ref="P9:R11"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B568AF28-D19B-41BB-81CC-B681AD479271}">
   <dimension ref="B2:L23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E11" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="K23" sqref="K23"/>
+    <sheetView topLeftCell="C1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -510,7 +1937,7 @@
         <v>90</v>
       </c>
       <c r="I6" s="1">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="J6" t="s">
         <v>9</v>
@@ -535,7 +1962,7 @@
         <v>-90</v>
       </c>
       <c r="I7" s="1">
-        <v>535</v>
+        <v>526</v>
       </c>
       <c r="J7" t="s">
         <v>7</v>
@@ -560,7 +1987,7 @@
       </c>
       <c r="I8" s="2">
         <f>((H8-H6)/(H7-H6))*(I7-I6)+I6</f>
-        <v>318.5</v>
+        <v>315</v>
       </c>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.3">
@@ -569,7 +1996,7 @@
       </c>
       <c r="I9">
         <f>((H9-H6)/(H7-H6))*(I7-I6)+I6</f>
-        <v>-114.5</v>
+        <v>-107</v>
       </c>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.3">
@@ -600,7 +2027,7 @@
         <v>90</v>
       </c>
       <c r="I13" s="1">
-        <v>95</v>
+        <v>114</v>
       </c>
       <c r="J13" t="s">
         <v>13</v>
@@ -610,18 +2037,12 @@
       </c>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="C14">
-        <v>102</v>
-      </c>
-      <c r="D14">
-        <v>535</v>
-      </c>
       <c r="H14" s="1">
         <f>-90-I11</f>
         <v>-90</v>
       </c>
       <c r="I14" s="1">
-        <v>516</v>
+        <v>527</v>
       </c>
       <c r="J14" t="s">
         <v>12</v>
@@ -639,7 +2060,7 @@
       </c>
       <c r="I15" s="2">
         <f>((H15-H13)/(H14-H13))*(I14-I13)+I13</f>
-        <v>305.5</v>
+        <v>320.5</v>
       </c>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.3">
@@ -648,7 +2069,7 @@
       </c>
       <c r="I16">
         <f>((H16-H13)/(H14-H13))*(I14-I13)+I13</f>
-        <v>-115.5</v>
+        <v>-92.5</v>
       </c>
     </row>
     <row r="18" spans="7:12" x14ac:dyDescent="0.3">
@@ -679,7 +2100,7 @@
         <v>90</v>
       </c>
       <c r="I20" s="1">
-        <v>79</v>
+        <v>114</v>
       </c>
       <c r="J20" t="s">
         <v>17</v>
@@ -694,7 +2115,7 @@
         <v>-90</v>
       </c>
       <c r="I21" s="1">
-        <v>505</v>
+        <v>535</v>
       </c>
       <c r="J21" t="s">
         <v>16</v>
@@ -712,7 +2133,7 @@
       </c>
       <c r="I22" s="2">
         <f>((H22-H20)/(H21-H20))*(I21-I20)+I20</f>
-        <v>292</v>
+        <v>324.5</v>
       </c>
     </row>
     <row r="23" spans="7:12" x14ac:dyDescent="0.3">
@@ -721,7 +2142,7 @@
       </c>
       <c r="I23">
         <f>((H23-H20)/(H21-H20))*(I21-I20)+I20</f>
-        <v>-134</v>
+        <v>-96.5</v>
       </c>
     </row>
   </sheetData>
@@ -730,27 +2151,38 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B568AF28-D19B-41BB-81CC-B681AD479271}">
-  <dimension ref="B2:L23"/>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14537E76-6C24-410F-B46A-30B4658062E7}">
+  <dimension ref="B1:T24"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView topLeftCell="D1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="Q8" sqref="Q8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="I1">
+        <v>109</v>
+      </c>
+      <c r="J1">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="2" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="2:20" x14ac:dyDescent="0.3">
       <c r="G3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="O3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="2:20" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>0</v>
       </c>
@@ -764,10 +2196,21 @@
         <v>6</v>
       </c>
       <c r="I4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.3">
+        <f>15.88+24.91</f>
+        <v>40.79</v>
+      </c>
+      <c r="O4" t="s">
+        <v>5</v>
+      </c>
+      <c r="P4" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q4">
+        <f>15.88+24.91</f>
+        <v>40.79</v>
+      </c>
+    </row>
+    <row r="5" spans="2:20" x14ac:dyDescent="0.3">
       <c r="C5" s="1">
         <v>90</v>
       </c>
@@ -780,8 +2223,14 @@
       <c r="I5" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="P5" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="2:20" x14ac:dyDescent="0.3">
       <c r="C6" s="1">
         <v>-90</v>
       </c>
@@ -789,11 +2238,11 @@
         <v>125</v>
       </c>
       <c r="H6" s="1">
-        <f>90-I4</f>
-        <v>90</v>
+        <f>I4</f>
+        <v>40.79</v>
       </c>
       <c r="I6" s="1">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="J6" t="s">
         <v>9</v>
@@ -801,8 +2250,22 @@
       <c r="L6" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="P6" s="1">
+        <f>Q4</f>
+        <v>40.79</v>
+      </c>
+      <c r="Q6" s="1">
+        <f>((Q9-Q8)*(P6-P8)/(P9-P8))+Q8</f>
+        <v>526.72344444444445</v>
+      </c>
+      <c r="R6" t="s">
+        <v>9</v>
+      </c>
+      <c r="T6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>2</v>
       </c>
@@ -814,11 +2277,11 @@
         <v>335</v>
       </c>
       <c r="H7" s="1">
-        <f>-90-I4</f>
-        <v>-90</v>
+        <f>H6-180</f>
+        <v>-139.21</v>
       </c>
       <c r="I7" s="1">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="J7" t="s">
         <v>7</v>
@@ -826,8 +2289,22 @@
       <c r="L7" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="P7" s="1">
+        <f>P6-180</f>
+        <v>-139.21</v>
+      </c>
+      <c r="Q7" s="1">
+        <f>((Q9-Q8)*(P7-P8)/(P9-P8))+Q8</f>
+        <v>108.7234444444444</v>
+      </c>
+      <c r="R7" t="s">
+        <v>7</v>
+      </c>
+      <c r="T7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="2:20" x14ac:dyDescent="0.3">
       <c r="C8">
         <v>180</v>
       </c>
@@ -843,19 +2320,47 @@
       </c>
       <c r="I8" s="2">
         <f>((H8-H6)/(H7-H6))*(I7-I6)+I6</f>
-        <v>315</v>
-      </c>
-    </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.3">
+        <v>203.72344444444445</v>
+      </c>
+      <c r="O8" t="s">
+        <v>2</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>432</v>
+      </c>
+      <c r="S8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="2:20" x14ac:dyDescent="0.3">
       <c r="H9">
         <v>180</v>
       </c>
       <c r="I9">
         <f>((H9-H6)/(H7-H6))*(I7-I6)+I6</f>
-        <v>-107</v>
-      </c>
-    </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.3">
+        <v>-214.27655555555555</v>
+      </c>
+      <c r="P9">
+        <v>180</v>
+      </c>
+      <c r="Q9" s="4">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="10" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="P10">
+        <f>Q4</f>
+        <v>40.79</v>
+      </c>
+      <c r="Q10">
+        <f>((P10-P6)/(P7-P6))*(Q7-Q6)+Q6</f>
+        <v>526.72344444444445</v>
+      </c>
+    </row>
+    <row r="11" spans="2:20" x14ac:dyDescent="0.3">
       <c r="G11" t="s">
         <v>11</v>
       </c>
@@ -868,22 +2373,40 @@
       <c r="J11" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="O11" t="s">
+        <v>11</v>
+      </c>
+      <c r="P11" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q11">
+        <v>24.91</v>
+      </c>
+      <c r="R11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="2:20" x14ac:dyDescent="0.3">
       <c r="H12" t="s">
         <v>0</v>
       </c>
       <c r="I12" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="P12" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="2:20" x14ac:dyDescent="0.3">
       <c r="H13" s="1">
         <f>90-I11</f>
         <v>90</v>
       </c>
       <c r="I13" s="1">
-        <v>114</v>
+        <v>95</v>
       </c>
       <c r="J13" t="s">
         <v>13</v>
@@ -891,14 +2414,34 @@
       <c r="L13" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="P13" s="1">
+        <f>-90+Q11</f>
+        <v>-65.09</v>
+      </c>
+      <c r="Q13" s="1">
+        <f>((Q16-Q15)*(P13-P15)/(P16-P15))+Q15</f>
+        <v>534.32311111111107</v>
+      </c>
+      <c r="R13" t="s">
+        <v>13</v>
+      </c>
+      <c r="T13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="C14">
+        <v>102</v>
+      </c>
+      <c r="D14">
+        <v>535</v>
+      </c>
       <c r="H14" s="1">
         <f>-90-I11</f>
         <v>-90</v>
       </c>
       <c r="I14" s="1">
-        <v>527</v>
+        <v>516</v>
       </c>
       <c r="J14" t="s">
         <v>12</v>
@@ -906,8 +2449,22 @@
       <c r="L14" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="P14" s="1">
+        <f>90+Q11</f>
+        <v>114.91</v>
+      </c>
+      <c r="Q14" s="1">
+        <f>((Q16-Q15)*(P14-P15)/(P16-P15))+Q15</f>
+        <v>110.32311111111113</v>
+      </c>
+      <c r="R14" t="s">
+        <v>12</v>
+      </c>
+      <c r="T14" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="2:20" x14ac:dyDescent="0.3">
       <c r="G15" t="s">
         <v>2</v>
       </c>
@@ -916,19 +2473,34 @@
       </c>
       <c r="I15" s="2">
         <f>((H15-H13)/(H14-H13))*(I14-I13)+I13</f>
-        <v>320.5</v>
-      </c>
-    </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.3">
+        <v>305.5</v>
+      </c>
+      <c r="O15" t="s">
+        <v>2</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="3">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="16" spans="2:20" x14ac:dyDescent="0.3">
       <c r="H16">
         <v>180</v>
       </c>
       <c r="I16">
         <f>((H16-H13)/(H14-H13))*(I14-I13)+I13</f>
-        <v>-92.5</v>
-      </c>
-    </row>
-    <row r="18" spans="7:12" x14ac:dyDescent="0.3">
+        <v>-115.5</v>
+      </c>
+      <c r="P16">
+        <v>180</v>
+      </c>
+      <c r="Q16" s="4">
+        <v>-43</v>
+      </c>
+    </row>
+    <row r="18" spans="7:20" x14ac:dyDescent="0.3">
       <c r="G18" t="s">
         <v>15</v>
       </c>
@@ -941,22 +2513,41 @@
       <c r="J18" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="19" spans="7:12" x14ac:dyDescent="0.3">
+      <c r="O18" t="s">
+        <v>15</v>
+      </c>
+      <c r="P18" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q18">
+        <f>24.91</f>
+        <v>24.91</v>
+      </c>
+      <c r="R18" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="7:20" x14ac:dyDescent="0.3">
       <c r="H19" t="s">
         <v>0</v>
       </c>
       <c r="I19" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="7:12" x14ac:dyDescent="0.3">
+      <c r="P19" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="7:20" x14ac:dyDescent="0.3">
       <c r="H20" s="1">
         <f>90-I18</f>
         <v>90</v>
       </c>
       <c r="I20" s="1">
-        <v>114</v>
+        <v>79</v>
       </c>
       <c r="J20" t="s">
         <v>17</v>
@@ -964,14 +2555,28 @@
       <c r="L20" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="21" spans="7:12" x14ac:dyDescent="0.3">
+      <c r="P20" s="1">
+        <f>-90+Q18</f>
+        <v>-65.09</v>
+      </c>
+      <c r="Q20" s="1">
+        <f>((Q23-Q22)*(P20-P22)/(P23-P22))+Q22</f>
+        <v>534.32311111111107</v>
+      </c>
+      <c r="R20" t="s">
+        <v>17</v>
+      </c>
+      <c r="T20" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="7:20" x14ac:dyDescent="0.3">
       <c r="H21" s="1">
         <f>-90-I18</f>
         <v>-90</v>
       </c>
       <c r="I21" s="1">
-        <v>535</v>
+        <v>505</v>
       </c>
       <c r="J21" t="s">
         <v>16</v>
@@ -979,8 +2584,22 @@
       <c r="L21" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="22" spans="7:12" x14ac:dyDescent="0.3">
+      <c r="P21" s="1">
+        <f>90+Q18</f>
+        <v>114.91</v>
+      </c>
+      <c r="Q21" s="1">
+        <f>((Q23-Q22)*(P21-P22)/(P23-P22))+Q22</f>
+        <v>110.32311111111113</v>
+      </c>
+      <c r="R21" t="s">
+        <v>16</v>
+      </c>
+      <c r="T21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="7:20" x14ac:dyDescent="0.3">
       <c r="G22" t="s">
         <v>2</v>
       </c>
@@ -989,16 +2608,40 @@
       </c>
       <c r="I22" s="2">
         <f>((H22-H20)/(H21-H20))*(I21-I20)+I20</f>
-        <v>324.5</v>
-      </c>
-    </row>
-    <row r="23" spans="7:12" x14ac:dyDescent="0.3">
+        <v>292</v>
+      </c>
+      <c r="O22" t="s">
+        <v>2</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="3">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="23" spans="7:20" x14ac:dyDescent="0.3">
       <c r="H23">
         <v>180</v>
       </c>
       <c r="I23">
         <f>((H23-H20)/(H21-H20))*(I21-I20)+I20</f>
-        <v>-96.5</v>
+        <v>-134</v>
+      </c>
+      <c r="P23">
+        <v>180</v>
+      </c>
+      <c r="Q23" s="4">
+        <v>-43</v>
+      </c>
+    </row>
+    <row r="24" spans="7:20" x14ac:dyDescent="0.3">
+      <c r="P24">
+        <v>24.91</v>
+      </c>
+      <c r="Q24">
+        <f>((P24-P20)/(P21-P20))*(Q21-Q20)+Q20</f>
+        <v>322.32311111111107</v>
       </c>
     </row>
   </sheetData>

--- a/Codes/regradetres.xlsx
+++ b/Codes/regradetres.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\SCARLET\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FC0D2896-E51D-4FF4-9A26-BF5E95C38CB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66ED2863-7225-4CB6-B884-37681E296980}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{046A992F-6F5C-4587-B765-BE75D3733EC5}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{046A992F-6F5C-4587-B765-BE75D3733EC5}"/>
   </bookViews>
   <sheets>
     <sheet name="TIFFANY" sheetId="2" r:id="rId1"/>
     <sheet name="SCARLET" sheetId="5" r:id="rId2"/>
-    <sheet name="Planilha1" sheetId="1" r:id="rId3"/>
-    <sheet name="TIFFANY_TESTE" sheetId="4" r:id="rId4"/>
+    <sheet name="PERNINHAS" sheetId="6" r:id="rId3"/>
+    <sheet name="Planilha1" sheetId="1" r:id="rId4"/>
+    <sheet name="TIFFANY_TESTE" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="32">
   <si>
     <t>grau</t>
   </si>
@@ -97,6 +98,33 @@
   </si>
   <si>
     <t>bota no 0 e parafusa ele saindo pra esquerda</t>
+  </si>
+  <si>
+    <t>CE</t>
+  </si>
+  <si>
+    <t>CD</t>
+  </si>
+  <si>
+    <t>JUNIOR E RICARDO</t>
+  </si>
+  <si>
+    <t>MESSI</t>
+  </si>
+  <si>
+    <t>ZIOTO E JONES</t>
+  </si>
+  <si>
+    <t>manda pro clique da direita e parafusa ele como se a pata tivesse no zero</t>
+  </si>
+  <si>
+    <t>GUSTAVO E DUDA</t>
+  </si>
+  <si>
+    <t>ALLEFE</t>
+  </si>
+  <si>
+    <t>JOBS E RAFAS</t>
   </si>
 </sst>
 </file>
@@ -278,7 +306,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -316,6 +344,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -637,10 +668,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B3BA7B7-8504-4640-B7F1-CD3E82B430DF}">
-  <dimension ref="D2:R25"/>
+  <dimension ref="D2:R30"/>
   <sheetViews>
-    <sheetView topLeftCell="B4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21:D22"/>
+    <sheetView topLeftCell="B8" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1118,7 +1149,7 @@
         <v>-65.09</v>
       </c>
       <c r="F21" s="1">
-        <v>79</v>
+        <v>140</v>
       </c>
       <c r="G21" t="s">
         <v>17</v>
@@ -1152,7 +1183,7 @@
         <v>114.91</v>
       </c>
       <c r="F22" s="1">
-        <v>505</v>
+        <v>524</v>
       </c>
       <c r="G22" t="s">
         <v>16</v>
@@ -1184,7 +1215,7 @@
       </c>
       <c r="F23" s="11">
         <f>((E23-E21)/(E22-E21))*(F22-F21)+F21</f>
-        <v>233.04633333333334</v>
+        <v>278.85866666666664</v>
       </c>
       <c r="J23" s="10"/>
       <c r="L23" s="9"/>
@@ -1204,7 +1235,7 @@
       </c>
       <c r="F24" s="12">
         <f>((E24-E21)/(E22-E21))*(F22-F21)+F21</f>
-        <v>659.04633333333334</v>
+        <v>662.85866666666664</v>
       </c>
       <c r="J24" s="10"/>
       <c r="L24" s="9"/>
@@ -1225,7 +1256,7 @@
       </c>
       <c r="F25" s="14">
         <f>((E25-E21)/(E22-E21))*(F22-F21)+F21</f>
-        <v>292</v>
+        <v>332</v>
       </c>
       <c r="G25" s="15"/>
       <c r="H25" s="15"/>
@@ -1243,6 +1274,50 @@
       <c r="P25" s="15"/>
       <c r="Q25" s="15"/>
       <c r="R25" s="17"/>
+    </row>
+    <row r="27" spans="4:18" x14ac:dyDescent="0.3">
+      <c r="E27">
+        <v>148</v>
+      </c>
+      <c r="F27">
+        <v>576</v>
+      </c>
+      <c r="H27">
+        <v>140</v>
+      </c>
+      <c r="I27">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="28" spans="4:18" x14ac:dyDescent="0.3">
+      <c r="E28">
+        <v>303</v>
+      </c>
+      <c r="F28">
+        <v>731</v>
+      </c>
+      <c r="H28">
+        <v>279</v>
+      </c>
+      <c r="I28">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="29" spans="4:18" x14ac:dyDescent="0.3">
+      <c r="H29">
+        <f>$G$30*E28</f>
+        <v>286.62162162162161</v>
+      </c>
+      <c r="I29">
+        <f>$G$30*F28</f>
+        <v>691.48648648648646</v>
+      </c>
+    </row>
+    <row r="30" spans="4:18" x14ac:dyDescent="0.3">
+      <c r="G30">
+        <f>H27/E27</f>
+        <v>0.94594594594594594</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -1258,10 +1333,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90497D79-28D0-4744-AC86-DE0ED2DEBC76}">
-  <dimension ref="D2:R25"/>
+  <dimension ref="D2:U25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1273,7 +1348,7 @@
     <col min="18" max="18" width="9.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="4:18" ht="31.2" x14ac:dyDescent="0.6">
+    <row r="2" spans="4:21" ht="31.2" x14ac:dyDescent="0.6">
       <c r="D2" s="25" t="s">
         <v>3</v>
       </c>
@@ -1292,7 +1367,15 @@
       <c r="Q2" s="25"/>
       <c r="R2" s="25"/>
     </row>
-    <row r="4" spans="4:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="4:21" x14ac:dyDescent="0.3">
+      <c r="T3">
+        <v>91</v>
+      </c>
+      <c r="U3">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="4" spans="4:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D4" s="20" t="s">
         <v>4</v>
       </c>
@@ -1311,8 +1394,14 @@
       <c r="P4" s="21"/>
       <c r="Q4" s="21"/>
       <c r="R4" s="21"/>
-    </row>
-    <row r="5" spans="4:18" x14ac:dyDescent="0.3">
+      <c r="T4" t="s">
+        <v>24</v>
+      </c>
+      <c r="U4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="4:21" x14ac:dyDescent="0.3">
       <c r="D5" s="19" t="s">
         <v>5</v>
       </c>
@@ -1322,7 +1411,9 @@
       <c r="F5" s="7">
         <v>13.87</v>
       </c>
-      <c r="G5" s="7"/>
+      <c r="G5" s="7" t="s">
+        <v>28</v>
+      </c>
       <c r="H5" s="7"/>
       <c r="I5" s="7"/>
       <c r="J5" s="8"/>
@@ -1340,7 +1431,7 @@
       <c r="Q5" s="7"/>
       <c r="R5" s="8"/>
     </row>
-    <row r="6" spans="4:18" x14ac:dyDescent="0.3">
+    <row r="6" spans="4:21" x14ac:dyDescent="0.3">
       <c r="D6" s="9"/>
       <c r="E6" t="s">
         <v>0</v>
@@ -1358,14 +1449,14 @@
       </c>
       <c r="R6" s="10"/>
     </row>
-    <row r="7" spans="4:18" x14ac:dyDescent="0.3">
+    <row r="7" spans="4:21" x14ac:dyDescent="0.3">
       <c r="D7" s="9"/>
       <c r="E7" s="1">
         <f>F5</f>
         <v>13.87</v>
       </c>
       <c r="F7" s="1">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="G7" t="s">
         <v>9</v>
@@ -1380,7 +1471,7 @@
         <v>13.87</v>
       </c>
       <c r="N7" s="1">
-        <v>527</v>
+        <v>506</v>
       </c>
       <c r="O7" t="s">
         <v>9</v>
@@ -1390,14 +1481,14 @@
       </c>
       <c r="R7" s="10"/>
     </row>
-    <row r="8" spans="4:18" x14ac:dyDescent="0.3">
+    <row r="8" spans="4:21" x14ac:dyDescent="0.3">
       <c r="D8" s="9"/>
       <c r="E8" s="1">
         <f>E7-180</f>
         <v>-166.13</v>
       </c>
       <c r="F8" s="1">
-        <v>527</v>
+        <v>550</v>
       </c>
       <c r="G8" t="s">
         <v>7</v>
@@ -1422,14 +1513,14 @@
       </c>
       <c r="R8" s="10"/>
     </row>
-    <row r="9" spans="4:18" x14ac:dyDescent="0.3">
+    <row r="9" spans="4:21" x14ac:dyDescent="0.3">
       <c r="D9" s="9"/>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9" s="11">
         <f>((E9-E7)/(E8-E7))*(F8-F7)+F7</f>
-        <v>141.20922222222222</v>
+        <v>145.75033333333334</v>
       </c>
       <c r="J9" s="10"/>
       <c r="L9" s="9"/>
@@ -1438,7 +1529,7 @@
       </c>
       <c r="N9" s="3">
         <f>((M9-M7)/(M8-M7))*(N8-N7)+N7</f>
-        <v>494.79077777777775</v>
+        <v>475.40894444444444</v>
       </c>
       <c r="P9" s="22" t="s">
         <v>20</v>
@@ -1446,14 +1537,14 @@
       <c r="Q9" s="22"/>
       <c r="R9" s="23"/>
     </row>
-    <row r="10" spans="4:18" x14ac:dyDescent="0.3">
+    <row r="10" spans="4:21" x14ac:dyDescent="0.3">
       <c r="D10" s="9"/>
       <c r="E10">
         <v>180</v>
       </c>
       <c r="F10" s="12">
         <f>((E10-E7)/(E8-E7))*(F8-F7)+F7</f>
-        <v>-276.79077777777781</v>
+        <v>-292.24966666666666</v>
       </c>
       <c r="J10" s="10"/>
       <c r="L10" s="9"/>
@@ -1462,13 +1553,13 @@
       </c>
       <c r="N10" s="4">
         <f>((M10-M7)/(M8-M7))*(N8-N7)+N7</f>
-        <v>912.79077777777775</v>
+        <v>872.40894444444439</v>
       </c>
       <c r="P10" s="22"/>
       <c r="Q10" s="22"/>
       <c r="R10" s="23"/>
     </row>
-    <row r="11" spans="4:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="4:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D11" s="13"/>
       <c r="E11" s="14">
         <f>F5</f>
@@ -1476,7 +1567,7 @@
       </c>
       <c r="F11" s="14">
         <f>((E11-E7)/(E8-E7))*(F8-F7)+F7</f>
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="G11" s="15"/>
       <c r="H11" s="16"/>
@@ -1489,13 +1580,13 @@
       </c>
       <c r="N11" s="18">
         <f>((M11-M7)/(M8-M7))*(N8-N7)+N7</f>
-        <v>527</v>
+        <v>506</v>
       </c>
       <c r="P11" s="22"/>
       <c r="Q11" s="22"/>
       <c r="R11" s="23"/>
     </row>
-    <row r="12" spans="4:18" x14ac:dyDescent="0.3">
+    <row r="12" spans="4:21" x14ac:dyDescent="0.3">
       <c r="D12" s="19" t="s">
         <v>11</v>
       </c>
@@ -1527,7 +1618,7 @@
       <c r="Q12" s="7"/>
       <c r="R12" s="8"/>
     </row>
-    <row r="13" spans="4:18" x14ac:dyDescent="0.3">
+    <row r="13" spans="4:21" x14ac:dyDescent="0.3">
       <c r="D13" s="9"/>
       <c r="E13" t="s">
         <v>0</v>
@@ -1545,14 +1636,14 @@
       </c>
       <c r="R13" s="10"/>
     </row>
-    <row r="14" spans="4:18" x14ac:dyDescent="0.3">
+    <row r="14" spans="4:21" x14ac:dyDescent="0.3">
       <c r="D14" s="9"/>
       <c r="E14" s="1">
         <f>-90+F12</f>
         <v>-90</v>
       </c>
       <c r="F14" s="1">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="G14" t="s">
         <v>13</v>
@@ -1567,7 +1658,7 @@
         <v>-90</v>
       </c>
       <c r="N14" s="1">
-        <v>534</v>
+        <v>514</v>
       </c>
       <c r="O14" t="s">
         <v>13</v>
@@ -1577,14 +1668,14 @@
       </c>
       <c r="R14" s="10"/>
     </row>
-    <row r="15" spans="4:18" x14ac:dyDescent="0.3">
+    <row r="15" spans="4:21" x14ac:dyDescent="0.3">
       <c r="D15" s="9"/>
       <c r="E15" s="1">
         <f>90+F12</f>
         <v>90</v>
       </c>
       <c r="F15" s="1">
-        <v>516</v>
+        <v>534</v>
       </c>
       <c r="G15" t="s">
         <v>12</v>
@@ -1599,7 +1690,7 @@
         <v>90</v>
       </c>
       <c r="N15" s="1">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="O15" t="s">
         <v>12</v>
@@ -1609,14 +1700,14 @@
       </c>
       <c r="R15" s="10"/>
     </row>
-    <row r="16" spans="4:18" x14ac:dyDescent="0.3">
+    <row r="16" spans="4:21" x14ac:dyDescent="0.3">
       <c r="D16" s="9"/>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16" s="11">
         <f>((E16-E14)/(E15-E14))*(F15-F14)+F14</f>
-        <v>305.5</v>
+        <v>318</v>
       </c>
       <c r="J16" s="10"/>
       <c r="L16" s="9"/>
@@ -1625,7 +1716,7 @@
       </c>
       <c r="N16" s="3">
         <f>((M16-M14)/(M15-M14))*(N15-N14)+N14</f>
-        <v>322</v>
+        <v>317.5</v>
       </c>
       <c r="R16" s="10"/>
     </row>
@@ -1636,7 +1727,7 @@
       </c>
       <c r="F17" s="12">
         <f>((E17-E14)/(E15-E14))*(F15-F14)+F14</f>
-        <v>726.5</v>
+        <v>750</v>
       </c>
       <c r="J17" s="10"/>
       <c r="L17" s="9"/>
@@ -1645,7 +1736,7 @@
       </c>
       <c r="N17" s="4">
         <f>((M17-M14)/(M15-M14))*(N15-N14)+N14</f>
-        <v>-102</v>
+        <v>-75.5</v>
       </c>
       <c r="R17" s="10"/>
     </row>
@@ -1657,7 +1748,7 @@
       </c>
       <c r="F18" s="14">
         <f>((E18-E14)/(E15-E14))*(F15-F14)+F14</f>
-        <v>305.5</v>
+        <v>318</v>
       </c>
       <c r="G18" s="15"/>
       <c r="H18" s="15"/>
@@ -1670,7 +1761,7 @@
       </c>
       <c r="N18" s="14">
         <f>((M18-M14)/(M15-M14))*(N15-N14)+N14</f>
-        <v>322</v>
+        <v>317.5</v>
       </c>
       <c r="O18" s="15"/>
       <c r="P18" s="15"/>
@@ -1736,7 +1827,7 @@
         <v>-90</v>
       </c>
       <c r="F21" s="1">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="G21" t="s">
         <v>17</v>
@@ -1751,7 +1842,7 @@
         <v>-90</v>
       </c>
       <c r="N21" s="1">
-        <v>534</v>
+        <v>527</v>
       </c>
       <c r="O21" t="s">
         <v>17</v>
@@ -1770,7 +1861,7 @@
         <v>90</v>
       </c>
       <c r="F22" s="1">
-        <v>505</v>
+        <v>521</v>
       </c>
       <c r="G22" t="s">
         <v>16</v>
@@ -1785,7 +1876,7 @@
         <v>90</v>
       </c>
       <c r="N22" s="1">
-        <v>110</v>
+        <v>133</v>
       </c>
       <c r="O22" t="s">
         <v>16</v>
@@ -1802,7 +1893,7 @@
       </c>
       <c r="F23" s="11">
         <f>((E23-E21)/(E22-E21))*(F22-F21)+F21</f>
-        <v>292</v>
+        <v>303</v>
       </c>
       <c r="J23" s="10"/>
       <c r="L23" s="9"/>
@@ -1811,7 +1902,7 @@
       </c>
       <c r="N23" s="5">
         <f>((M23-M21)/(M22-M21))*(N22-N21)+N21</f>
-        <v>322</v>
+        <v>330</v>
       </c>
       <c r="R23" s="10"/>
     </row>
@@ -1822,7 +1913,7 @@
       </c>
       <c r="F24" s="12">
         <f>((E24-E21)/(E22-E21))*(F22-F21)+F21</f>
-        <v>718</v>
+        <v>739</v>
       </c>
       <c r="J24" s="10"/>
       <c r="L24" s="9"/>
@@ -1831,7 +1922,7 @@
       </c>
       <c r="N24" s="6">
         <f>((M24-M21)/(M22-M21))*(N22-N21)+N21</f>
-        <v>-102</v>
+        <v>-64</v>
       </c>
       <c r="R24" s="10"/>
     </row>
@@ -1843,7 +1934,7 @@
       </c>
       <c r="F25" s="14">
         <f>((E25-E21)/(E22-E21))*(F22-F21)+F21</f>
-        <v>292</v>
+        <v>303</v>
       </c>
       <c r="G25" s="15"/>
       <c r="H25" s="15"/>
@@ -1855,7 +1946,7 @@
       </c>
       <c r="N25" s="14">
         <f>((M25-M21)/(M22-M21))*(N22-N21)+N21</f>
-        <v>322</v>
+        <v>330</v>
       </c>
       <c r="O25" s="15"/>
       <c r="P25" s="15"/>
@@ -1875,6 +1966,374 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C15DAB55-BD4F-4E9C-9AF2-56E0913AEC32}">
+  <dimension ref="E1:R15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S13" sqref="S13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="5:18" x14ac:dyDescent="0.3">
+      <c r="F1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="5:18" x14ac:dyDescent="0.3">
+      <c r="E2" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2">
+        <v>85</v>
+      </c>
+      <c r="H2">
+        <v>521</v>
+      </c>
+      <c r="I2">
+        <v>303</v>
+      </c>
+      <c r="J2">
+        <v>739</v>
+      </c>
+      <c r="M2" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="N2" t="s">
+        <v>15</v>
+      </c>
+      <c r="O2">
+        <v>133</v>
+      </c>
+      <c r="P2">
+        <v>518</v>
+      </c>
+      <c r="Q2">
+        <v>326</v>
+      </c>
+      <c r="R2">
+        <v>-59</v>
+      </c>
+    </row>
+    <row r="3" spans="5:18" x14ac:dyDescent="0.3">
+      <c r="E3" s="26"/>
+      <c r="F3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3">
+        <v>102</v>
+      </c>
+      <c r="H3">
+        <v>534</v>
+      </c>
+      <c r="I3">
+        <v>318</v>
+      </c>
+      <c r="J3">
+        <v>750</v>
+      </c>
+      <c r="M3" s="26"/>
+      <c r="N3" t="s">
+        <v>11</v>
+      </c>
+      <c r="O3">
+        <v>129</v>
+      </c>
+      <c r="P3">
+        <v>531</v>
+      </c>
+      <c r="Q3">
+        <v>330</v>
+      </c>
+      <c r="R3">
+        <v>-72</v>
+      </c>
+    </row>
+    <row r="4" spans="5:18" x14ac:dyDescent="0.3">
+      <c r="E4" s="26"/>
+      <c r="F4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4">
+        <v>112</v>
+      </c>
+      <c r="H4">
+        <v>550</v>
+      </c>
+      <c r="I4">
+        <v>146</v>
+      </c>
+      <c r="J4">
+        <v>-292</v>
+      </c>
+      <c r="M4" s="26"/>
+      <c r="N4" t="s">
+        <v>5</v>
+      </c>
+      <c r="O4">
+        <v>93</v>
+      </c>
+      <c r="P4">
+        <v>486</v>
+      </c>
+      <c r="Q4">
+        <v>456</v>
+      </c>
+      <c r="R4">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="6" spans="5:18" x14ac:dyDescent="0.3">
+      <c r="F6" t="s">
+        <v>25</v>
+      </c>
+      <c r="N6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="5:18" x14ac:dyDescent="0.3">
+      <c r="E7" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7">
+        <v>91</v>
+      </c>
+      <c r="H7">
+        <v>512</v>
+      </c>
+      <c r="I7">
+        <v>302</v>
+      </c>
+      <c r="J7">
+        <v>723</v>
+      </c>
+      <c r="M7" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="N7" t="s">
+        <v>15</v>
+      </c>
+      <c r="O7">
+        <v>103</v>
+      </c>
+      <c r="P7">
+        <v>502</v>
+      </c>
+      <c r="Q7">
+        <v>303</v>
+      </c>
+      <c r="R7">
+        <v>-96</v>
+      </c>
+    </row>
+    <row r="8" spans="5:18" x14ac:dyDescent="0.3">
+      <c r="E8" s="26"/>
+      <c r="F8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8">
+        <v>102</v>
+      </c>
+      <c r="H8">
+        <v>527</v>
+      </c>
+      <c r="I8">
+        <v>315</v>
+      </c>
+      <c r="J8">
+        <v>740</v>
+      </c>
+      <c r="M8" s="26"/>
+      <c r="N8" t="s">
+        <v>11</v>
+      </c>
+      <c r="O8">
+        <v>107</v>
+      </c>
+      <c r="P8">
+        <v>502</v>
+      </c>
+      <c r="Q8">
+        <v>305</v>
+      </c>
+      <c r="R8">
+        <v>-89</v>
+      </c>
+    </row>
+    <row r="9" spans="5:18" x14ac:dyDescent="0.3">
+      <c r="E9" s="26"/>
+      <c r="F9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G9">
+        <v>107</v>
+      </c>
+      <c r="H9">
+        <v>537</v>
+      </c>
+      <c r="I9">
+        <v>140</v>
+      </c>
+      <c r="J9">
+        <v>-290</v>
+      </c>
+      <c r="M9" s="26"/>
+      <c r="N9" t="s">
+        <v>5</v>
+      </c>
+      <c r="O9">
+        <v>116</v>
+      </c>
+      <c r="P9">
+        <v>508</v>
+      </c>
+      <c r="Q9">
+        <v>478</v>
+      </c>
+      <c r="R9">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="12" spans="5:18" x14ac:dyDescent="0.3">
+      <c r="F12" t="s">
+        <v>27</v>
+      </c>
+      <c r="N12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="5:18" x14ac:dyDescent="0.3">
+      <c r="E13" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="F13" t="s">
+        <v>15</v>
+      </c>
+      <c r="G13">
+        <v>132</v>
+      </c>
+      <c r="H13">
+        <v>568</v>
+      </c>
+      <c r="I13">
+        <v>350</v>
+      </c>
+      <c r="J13">
+        <v>786</v>
+      </c>
+      <c r="M13" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="N13" t="s">
+        <v>15</v>
+      </c>
+      <c r="O13">
+        <v>133</v>
+      </c>
+      <c r="P13">
+        <v>527</v>
+      </c>
+      <c r="Q13">
+        <v>475</v>
+      </c>
+      <c r="R13">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="14" spans="5:18" x14ac:dyDescent="0.3">
+      <c r="E14" s="26"/>
+      <c r="F14" t="s">
+        <v>11</v>
+      </c>
+      <c r="G14">
+        <v>112</v>
+      </c>
+      <c r="H14">
+        <v>541</v>
+      </c>
+      <c r="I14">
+        <v>327</v>
+      </c>
+      <c r="J14">
+        <v>756</v>
+      </c>
+      <c r="M14" s="26"/>
+      <c r="N14" t="s">
+        <v>11</v>
+      </c>
+      <c r="O14">
+        <v>121</v>
+      </c>
+      <c r="P14">
+        <v>514</v>
+      </c>
+      <c r="Q14">
+        <v>318</v>
+      </c>
+      <c r="R14">
+        <v>-75</v>
+      </c>
+    </row>
+    <row r="15" spans="5:18" x14ac:dyDescent="0.3">
+      <c r="E15" s="26"/>
+      <c r="F15" t="s">
+        <v>5</v>
+      </c>
+      <c r="G15">
+        <v>116</v>
+      </c>
+      <c r="H15">
+        <v>548</v>
+      </c>
+      <c r="I15">
+        <v>149</v>
+      </c>
+      <c r="J15">
+        <v>-283</v>
+      </c>
+      <c r="M15" s="26"/>
+      <c r="N15" t="s">
+        <v>5</v>
+      </c>
+      <c r="O15">
+        <v>109</v>
+      </c>
+      <c r="P15">
+        <v>506</v>
+      </c>
+      <c r="Q15">
+        <v>330</v>
+      </c>
+      <c r="R15">
+        <v>-64</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="E7:E9"/>
+    <mergeCell ref="E13:E15"/>
+    <mergeCell ref="E2:E4"/>
+    <mergeCell ref="M2:M4"/>
+    <mergeCell ref="M7:M9"/>
+    <mergeCell ref="M13:M15"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B568AF28-D19B-41BB-81CC-B681AD479271}">
   <dimension ref="B2:L23"/>
   <sheetViews>
@@ -2151,7 +2610,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14537E76-6C24-410F-B46A-30B4658062E7}">
   <dimension ref="B1:T24"/>
   <sheetViews>

--- a/Codes/regradetres.xlsx
+++ b/Codes/regradetres.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\SCARLET\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66ED2863-7225-4CB6-B884-37681E296980}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58F048A2-758C-4174-8DFA-460722C8C020}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{046A992F-6F5C-4587-B765-BE75D3733EC5}"/>
   </bookViews>
@@ -1336,7 +1336,7 @@
   <dimension ref="D2:U25"/>
   <sheetViews>
     <sheetView topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+      <selection activeCell="N23" sqref="N23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1970,7 +1970,7 @@
   <dimension ref="E1:R15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S13" sqref="S13"/>
+      <selection activeCell="Q17" sqref="Q17:R17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2246,10 +2246,10 @@
         <v>527</v>
       </c>
       <c r="Q13">
-        <v>475</v>
+        <v>330</v>
       </c>
       <c r="R13">
-        <v>872</v>
+        <v>-64</v>
       </c>
     </row>
     <row r="14" spans="5:18" x14ac:dyDescent="0.3">
@@ -2314,10 +2314,10 @@
         <v>506</v>
       </c>
       <c r="Q15">
-        <v>330</v>
+        <v>475</v>
       </c>
       <c r="R15">
-        <v>-64</v>
+        <v>872</v>
       </c>
     </row>
   </sheetData>

--- a/Codes/regradetres.xlsx
+++ b/Codes/regradetres.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\SCARLET\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58F048A2-758C-4174-8DFA-460722C8C020}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4E3C1A2-74D7-41BE-AA12-681C3866AEC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{046A992F-6F5C-4587-B765-BE75D3733EC5}"/>
+    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" activeTab="2" xr2:uid="{046A992F-6F5C-4587-B765-BE75D3733EC5}"/>
   </bookViews>
   <sheets>
     <sheet name="TIFFANY" sheetId="2" r:id="rId1"/>
@@ -1967,10 +1967,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C15DAB55-BD4F-4E9C-9AF2-56E0913AEC32}">
-  <dimension ref="E1:R15"/>
+  <dimension ref="E1:R32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q17" sqref="Q17:R17"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="Q13" sqref="Q13:R15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2318,6 +2318,150 @@
       </c>
       <c r="R15">
         <v>872</v>
+      </c>
+    </row>
+    <row r="17" spans="7:15" x14ac:dyDescent="0.3">
+      <c r="O17">
+        <f>P2-O2</f>
+        <v>385</v>
+      </c>
+    </row>
+    <row r="18" spans="7:15" x14ac:dyDescent="0.3">
+      <c r="O18">
+        <f t="shared" ref="O18:O30" si="0">P3-O3</f>
+        <v>402</v>
+      </c>
+    </row>
+    <row r="19" spans="7:15" x14ac:dyDescent="0.3">
+      <c r="G19">
+        <f>H2-G2</f>
+        <v>436</v>
+      </c>
+      <c r="O19">
+        <f t="shared" si="0"/>
+        <v>393</v>
+      </c>
+    </row>
+    <row r="20" spans="7:15" x14ac:dyDescent="0.3">
+      <c r="G20">
+        <f t="shared" ref="G20:G32" si="1">H3-G3</f>
+        <v>432</v>
+      </c>
+      <c r="O20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="7:15" x14ac:dyDescent="0.3">
+      <c r="G21">
+        <f t="shared" si="1"/>
+        <v>438</v>
+      </c>
+      <c r="O21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="7:15" x14ac:dyDescent="0.3">
+      <c r="G22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <f t="shared" si="0"/>
+        <v>399</v>
+      </c>
+    </row>
+    <row r="23" spans="7:15" x14ac:dyDescent="0.3">
+      <c r="G23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <f t="shared" si="0"/>
+        <v>395</v>
+      </c>
+    </row>
+    <row r="24" spans="7:15" x14ac:dyDescent="0.3">
+      <c r="G24">
+        <f t="shared" si="1"/>
+        <v>421</v>
+      </c>
+      <c r="O24">
+        <f t="shared" si="0"/>
+        <v>392</v>
+      </c>
+    </row>
+    <row r="25" spans="7:15" x14ac:dyDescent="0.3">
+      <c r="G25">
+        <f t="shared" si="1"/>
+        <v>425</v>
+      </c>
+      <c r="O25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="7:15" x14ac:dyDescent="0.3">
+      <c r="G26">
+        <f t="shared" si="1"/>
+        <v>430</v>
+      </c>
+      <c r="O26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="7:15" x14ac:dyDescent="0.3">
+      <c r="G27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="7:15" x14ac:dyDescent="0.3">
+      <c r="G28">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O28">
+        <f t="shared" si="0"/>
+        <v>394</v>
+      </c>
+    </row>
+    <row r="29" spans="7:15" x14ac:dyDescent="0.3">
+      <c r="G29">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O29">
+        <f t="shared" si="0"/>
+        <v>393</v>
+      </c>
+    </row>
+    <row r="30" spans="7:15" x14ac:dyDescent="0.3">
+      <c r="G30">
+        <f t="shared" si="1"/>
+        <v>436</v>
+      </c>
+      <c r="O30">
+        <f t="shared" si="0"/>
+        <v>397</v>
+      </c>
+    </row>
+    <row r="31" spans="7:15" x14ac:dyDescent="0.3">
+      <c r="G31">
+        <f t="shared" si="1"/>
+        <v>429</v>
+      </c>
+    </row>
+    <row r="32" spans="7:15" x14ac:dyDescent="0.3">
+      <c r="G32">
+        <f t="shared" si="1"/>
+        <v>432</v>
       </c>
     </row>
   </sheetData>
